--- a/ProgressionPlayground.xlsx
+++ b/ProgressionPlayground.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corru\Workspace\VentureValheim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corru\Workspace\Valheim-Modding\VentureValheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A41DE8-6975-4E17-A464-9832A5192701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70E7E3-618F-4650-863B-6ED9E2A476FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{731B0F8C-6FED-4242-8F16-C9CE55E037E9}"/>
+    <workbookView xWindow="5025" yWindow="2385" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{731B0F8C-6FED-4242-8F16-C9CE55E037E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Creature Scaling" sheetId="1" r:id="rId1"/>
     <sheet name="Vanilla Creatures" sheetId="2" r:id="rId2"/>
     <sheet name="Creature Scaling (2)" sheetId="3" r:id="rId3"/>
     <sheet name="New Scaling" sheetId="4" r:id="rId4"/>
+    <sheet name="Algorithms" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Vanilla Creatures'!$B$18:$B$26</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Vanilla Creatures'!$B$28:$B$35</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Vanilla Creatures'!$B$55:$B$57</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Vanilla Creatures'!$B$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Vanilla Creatures'!$B$44</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Vanilla Creatures'!$B$55</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Vanilla Creatures'!$B$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Vanilla Creatures'!$B$72</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Vanilla Creatures'!$B$37:$B$43</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Vanilla Creatures'!$B$3:$B$6</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Vanilla Creatures'!$B$45:$B$54</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Vanilla Creatures'!$B$8:$B$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Vanilla Creatures'!$B$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Vanilla Creatures'!$B$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Vanilla Creatures'!$B$36</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Vanilla Creatures'!$B$44</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Vanilla Creatures'!$B$56:$B$71</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Vanilla Creatures'!$B$8:$B$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Vanilla Creatures'!$B$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Vanilla Creatures'!$B$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Vanilla Creatures'!$B$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="123">
   <si>
     <t>Scale Factor</t>
   </si>
@@ -269,12 +272,6 @@
     <t>Tick</t>
   </si>
   <si>
-    <t>TheHive</t>
-  </si>
-  <si>
-    <t>Hive</t>
-  </si>
-  <si>
     <t>SeekerQueen</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>Base Damage %</t>
   </si>
   <si>
-    <t>Average Armor</t>
-  </si>
-  <si>
     <t>Armor Base</t>
   </si>
   <si>
@@ -322,11 +316,122 @@
   <si>
     <t>difficulty setting</t>
   </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>Asksvin</t>
+  </si>
+  <si>
+    <t>Asksvin_hatchling</t>
+  </si>
+  <si>
+    <t>BlobLava</t>
+  </si>
+  <si>
+    <t>BonemawSerpent</t>
+  </si>
+  <si>
+    <t>Charred_Archer</t>
+  </si>
+  <si>
+    <t>Charred_Archer_Fader</t>
+  </si>
+  <si>
+    <t>Charred_Mage</t>
+  </si>
+  <si>
+    <t>Charred_Melee</t>
+  </si>
+  <si>
+    <t>Charred_Melee_Dyrnwyn</t>
+  </si>
+  <si>
+    <t>Charred_Melee_Fader</t>
+  </si>
+  <si>
+    <t>Charred_Twitcher</t>
+  </si>
+  <si>
+    <t>Charred_Twitcher_Summoned</t>
+  </si>
+  <si>
+    <t>Fader</t>
+  </si>
+  <si>
+    <t>FallenValkyrie</t>
+  </si>
+  <si>
+    <t>Morgen</t>
+  </si>
+  <si>
+    <t>Morgen_NonSleeping</t>
+  </si>
+  <si>
+    <t>Troll_Summoned</t>
+  </si>
+  <si>
+    <t>Volture</t>
+  </si>
+  <si>
+    <t>Biome</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Deep North</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>expo</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Expo</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Skeleton_Friendly</t>
+  </si>
+  <si>
+    <t>staff_greenroots_tentaroot</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Upgrade1</t>
+  </si>
+  <si>
+    <t>Upgrade2</t>
+  </si>
+  <si>
+    <t>Upgrade Levels2</t>
+  </si>
+  <si>
+    <t>Upgrade Levels1</t>
+  </si>
+  <si>
+    <t>Minimum Armor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,12 +523,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCDCD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5DFC0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,40 +624,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -564,6 +669,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB5DFC0"/>
       <color rgb="FFFFA3A3"/>
       <color rgb="FFFF9797"/>
       <color rgb="FFFFCDCD"/>
@@ -743,25 +849,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.25</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.75</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.5</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.25</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,28 +968,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.5</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.5</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.5</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,25 +1093,25 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.5</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.5</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142.5</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>187.5</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,25 +1215,25 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162.5</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>237.5</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>312.5</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,25 +1337,25 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>650</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>950</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1100</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1250</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,25 +1459,25 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>875</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1625</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2375</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2750</c:v>
+                  <c:v>15500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3125</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,7 +1813,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$15:$I$15</c:f>
+              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1740,7 +1846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$16:$I$16</c:f>
+              <c:f>'Creature Scaling'!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1748,25 +1854,25 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.3125</c:v>
+                  <c:v>8.4500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.796875</c:v>
+                  <c:v>10.985000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.89453125</c:v>
+                  <c:v>14.280500000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0654296875</c:v>
+                  <c:v>18.564650000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143.614501953125</c:v>
+                  <c:v>24.134045000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251.32537841796875</c:v>
+                  <c:v>31.374258500000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,7 +1935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$15:$I$15</c:f>
+              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1862,7 +1968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$17:$I$17</c:f>
+              <c:f>'Creature Scaling'!$B$20:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1870,25 +1976,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.625</c:v>
+                  <c:v>16.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.59375</c:v>
+                  <c:v>21.970000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.7890625</c:v>
+                  <c:v>28.561000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164.130859375</c:v>
+                  <c:v>37.129300000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>287.22900390625</c:v>
+                  <c:v>48.268090000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>502.6507568359375</c:v>
+                  <c:v>62.748517000000028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,7 +2057,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$15:$I$15</c:f>
+              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1984,7 +2090,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
+              <c:f>'Creature Scaling'!$B$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1992,25 +2098,25 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.875</c:v>
+                  <c:v>50.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.78125</c:v>
+                  <c:v>65.910000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281.3671875</c:v>
+                  <c:v>85.683000000000021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>492.392578125</c:v>
+                  <c:v>111.38790000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>861.68701171875</c:v>
+                  <c:v>144.80427000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1507.9522705078125</c:v>
+                  <c:v>188.24555100000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,7 +2179,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$15:$I$15</c:f>
+              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2106,7 +2212,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$19:$I$19</c:f>
+              <c:f>'Creature Scaling'!$B$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2114,25 +2220,25 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.5</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.125</c:v>
+                  <c:v>84.500000000000014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>267.96875</c:v>
+                  <c:v>109.85000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>468.9453125</c:v>
+                  <c:v>142.80500000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>820.654296875</c:v>
+                  <c:v>185.64650000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1436.14501953125</c:v>
+                  <c:v>241.34045000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2513.2537841796875</c:v>
+                  <c:v>313.74258500000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,7 +2301,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$15:$I$15</c:f>
+              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2228,7 +2334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$20:$I$20</c:f>
+              <c:f>'Creature Scaling'!$B$23:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2236,25 +2342,25 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.5</c:v>
+                  <c:v>338.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1071.875</c:v>
+                  <c:v>439.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1875.78125</c:v>
+                  <c:v>571.22000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3282.6171875</c:v>
+                  <c:v>742.58600000000024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5744.580078125</c:v>
+                  <c:v>965.36180000000036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10053.01513671875</c:v>
+                  <c:v>1254.9703400000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,7 +2423,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$15:$I$15</c:f>
+              <c:f>'Creature Scaling'!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2350,7 +2456,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creature Scaling'!$B$21:$I$21</c:f>
+              <c:f>'Creature Scaling'!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2358,25 +2464,25 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>875</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1531.25</c:v>
+                  <c:v>845.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2679.6875</c:v>
+                  <c:v>1098.5000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4689.453125</c:v>
+                  <c:v>1428.0500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8206.54296875</c:v>
+                  <c:v>1856.4650000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14361.4501953125</c:v>
+                  <c:v>2413.404500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25132.537841796875</c:v>
+                  <c:v>3137.4258500000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4423,6 +4529,747 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Linear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Algorithms!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Algorithms!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AC8-4C4E-B56F-9BF48C2D6896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exponential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Algorithms!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Algorithms!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1970000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8561000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.712930000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8268090000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2748517000000028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AC8-4C4E-B56F-9BF48C2D6896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Logarithmic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Algorithms!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Algorithms!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.709511291351455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.709511291351455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4190225827029099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9693622959161177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.419022582702909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7992049380885575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.128533874054364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4AC8-4C4E-B56F-9BF48C2D6896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1654046512"/>
+        <c:axId val="1654046032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1654046512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Biome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654046032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1654046032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scale</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654046512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent2"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -4433,7 +5280,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
@@ -4454,6 +5301,11 @@
     <cx:data id="5">
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4639,13 +5491,25 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000000-1B34-4202-9E59-F4FAFF23DD6E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>ashlands</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="2500"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -4667,32 +5531,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4878,13 +5747,25 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000000-4C6A-412F-9075-E8FFA126676D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>ashlands</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="30000"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -5141,6 +6022,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -8083,6 +9004,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8217,7 +9654,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3495675" y="161925"/>
+              <a:off x="4019550" y="161925"/>
               <a:ext cx="3695699" cy="6400800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8251,15 +9688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -8295,7 +9732,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7305675" y="161925"/>
+              <a:off x="7820025" y="171450"/>
               <a:ext cx="3695699" cy="6400800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8402,6 +9839,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328611</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72591A5F-670D-435C-8427-D52EFA3959D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8707,10 +10187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EA75A4-2E45-43C9-9489-004658CC21D5}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8726,21 +10206,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="8">
-        <v>0.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -8809,31 +10289,31 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ref="C6:I11" si="0">$B6*(1 + C$5*$B$1)</f>
-        <v>8.75</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>16.25</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>23.75</v>
+        <v>130</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>155</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8841,35 +10321,35 @@
         <v>4</v>
       </c>
       <c r="B7" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>465</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8881,31 +10361,31 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>52.5</v>
+        <v>180</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>480</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>630</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>142.5</v>
+        <v>780</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>930</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>187.5</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8917,31 +10397,31 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>550</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>162.5</v>
+        <v>800</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>237.5</v>
+        <v>1300</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>1550</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>312.5</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8953,31 +10433,31 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>3200</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>5200</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>6200</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8989,324 +10469,332 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>875</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>5500</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>8000</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>2375</v>
+        <v>13000</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>2750</v>
+        <v>15500</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F18" s="5">
         <v>4</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G18" s="5">
         <v>5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H18" s="5">
         <v>6</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I18" s="5">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <f>$B16*((1+$B$1)^ C$15)</f>
-        <v>8.75</v>
-      </c>
-      <c r="D16" s="3">
-        <f>$B16*((1+$B$1)^ D$15)</f>
-        <v>15.3125</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ref="E16:I21" si="1">$B16*((1+$B$1)^ E$15)</f>
-        <v>26.796875</v>
-      </c>
-      <c r="F16" s="3">
-        <f>$B16*((1+$B$1)^ F$15)</f>
-        <v>46.89453125</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>82.0654296875</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>143.614501953125</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="1"/>
-        <v>251.32537841796875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:D21" si="2">$B17*((1+$B$1)^ C$15)</f>
-        <v>17.5</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>30.625</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>53.59375</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>93.7890625</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>164.130859375</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="1"/>
-        <v>287.22900390625</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="1"/>
-        <v>502.6507568359375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>91.875</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>160.78125</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>281.3671875</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>492.392578125</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>861.68701171875</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="1"/>
-        <v>1507.9522705078125</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="2"/>
-        <v>87.5</v>
+        <f t="shared" ref="C19:I24" si="1">$B19*((1+$B$15)^ C$18)</f>
+        <v>6.5</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>153.125</v>
+        <f t="shared" si="1"/>
+        <v>8.4500000000000011</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>267.96875</v>
+        <v>10.985000000000003</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>468.9453125</v>
+        <v>14.280500000000004</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>820.654296875</v>
+        <v>18.564650000000004</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>1436.14501953125</v>
+        <v>24.134045000000008</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="1"/>
-        <v>2513.2537841796875</v>
+        <v>31.374258500000014</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" s="8">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="2"/>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>612.5</v>
+        <f t="shared" si="1"/>
+        <v>16.900000000000002</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>1071.875</v>
+        <v>21.970000000000006</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>1875.78125</v>
+        <v>28.561000000000007</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>3282.6171875</v>
+        <v>37.129300000000008</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>5744.580078125</v>
+        <v>48.268090000000015</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
-        <v>10053.01513671875</v>
+        <v>62.748517000000028</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="8">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="2"/>
-        <v>875</v>
+        <f>$B21*((1+$B$15)^ C$18)</f>
+        <v>39</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="2"/>
-        <v>1531.25</v>
+        <f t="shared" si="1"/>
+        <v>50.7</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>2679.6875</v>
+        <v>65.910000000000011</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>4689.453125</v>
+        <v>85.683000000000021</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>8206.54296875</v>
+        <v>111.38790000000003</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>14361.4501953125</v>
+        <v>144.80427000000006</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="1"/>
-        <v>25132.537841796875</v>
+        <v>188.24555100000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>84.500000000000014</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>109.85000000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>142.80500000000004</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>185.64650000000006</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>241.34045000000009</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
+        <v>313.74258500000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8">
+        <v>200</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>338.00000000000006</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>439.40000000000009</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>571.22000000000014</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>742.58600000000024</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>965.36180000000036</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>1254.9703400000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <v>500</v>
+      </c>
+      <c r="C24" s="3">
+        <f>$B24*((1+$B$15)^ C$18)</f>
+        <v>650</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>845.00000000000011</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>1098.5000000000002</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>1428.0500000000002</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>1856.4650000000004</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>2413.404500000001</v>
+      </c>
+      <c r="I24" s="3">
+        <f>$B24*((1+$B$15)^ I$18)</f>
+        <v>3137.4258500000014</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9316,15 +10804,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FE0309-7EE7-4BBA-AA01-0508FF23F686}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9336,15 +10824,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>75</v>
+      <c r="A2" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2">
@@ -9352,7 +10840,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="2">
@@ -9360,7 +10848,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2">
@@ -9368,7 +10856,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="2">
@@ -9376,7 +10864,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="2">
@@ -9384,7 +10872,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2">
@@ -9392,7 +10880,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2">
@@ -9400,7 +10888,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2">
@@ -9408,7 +10896,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2">
@@ -9416,7 +10904,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2">
@@ -9424,7 +10912,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
@@ -9432,7 +10920,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2">
@@ -9440,7 +10928,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2">
@@ -9448,7 +10936,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="2">
@@ -9456,7 +10944,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="2">
@@ -9464,7 +10952,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="2">
@@ -9472,7 +10960,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2">
@@ -9480,7 +10968,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="2">
@@ -9488,7 +10976,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="2">
@@ -9496,7 +10984,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2">
@@ -9504,7 +10992,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2">
@@ -9512,7 +11000,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="2">
@@ -9520,7 +11008,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="2">
@@ -9528,7 +11016,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2">
@@ -9536,7 +11024,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="2">
@@ -9544,7 +11032,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="2">
@@ -9552,7 +11040,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="2">
@@ -9560,7 +11048,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="2">
@@ -9568,7 +11056,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="2">
@@ -9576,7 +11064,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="2">
@@ -9584,7 +11072,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="2">
@@ -9592,7 +11080,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="2">
@@ -9600,7 +11088,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2">
@@ -9608,7 +11096,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="2">
@@ -9616,7 +11104,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="2">
@@ -9624,7 +11112,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="2">
@@ -9632,7 +11120,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="2">
@@ -9640,7 +11128,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="2">
@@ -9648,7 +11136,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2">
@@ -9656,7 +11144,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2">
@@ -9664,7 +11152,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2">
@@ -9672,15 +11160,15 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>76</v>
+      <c r="A44" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B44" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="2">
@@ -9688,7 +11176,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2">
@@ -9696,7 +11184,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="2">
@@ -9704,7 +11192,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="2">
@@ -9712,7 +11200,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="2">
@@ -9720,7 +11208,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2">
@@ -9728,7 +11216,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="2">
@@ -9736,7 +11224,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="2">
@@ -9744,7 +11232,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="2">
@@ -9752,7 +11240,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="2">
@@ -9760,32 +11248,177 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B55" s="2">
-        <v>5000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>73</v>
+      <c r="A56" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="B56" s="2">
-        <v>10000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>74</v>
+      <c r="A57" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B57" s="2">
-        <v>12500</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="2">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9793,8 +11426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7774F3-63C7-4837-A93B-A6B3BE1E2FCE}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9814,7 +11447,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8">
         <v>30</v>
@@ -9822,9 +11455,9 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="23">
+        <v>76</v>
+      </c>
+      <c r="B3" s="16">
         <v>10</v>
       </c>
     </row>
@@ -9835,7 +11468,7 @@
       <c r="B5" s="8">
         <v>0.17</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9846,7 +11479,7 @@
       <c r="B6" s="8">
         <v>0.3</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -9857,7 +11490,7 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9868,7 +11501,7 @@
       <c r="B8" s="8">
         <v>1.7</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="16">
         <v>1.25</v>
       </c>
     </row>
@@ -9879,7 +11512,7 @@
       <c r="B9" s="8">
         <v>6.7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -9890,135 +11523,135 @@
       <c r="B10" s="8">
         <v>16.7</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="18"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="24">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24">
         <v>1</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19">
+      <c r="E14" s="23"/>
+      <c r="F14" s="24">
         <v>2</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24">
         <v>3</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19">
+      <c r="I14" s="23"/>
+      <c r="J14" s="24">
         <v>4</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19">
+      <c r="K14" s="23"/>
+      <c r="L14" s="24">
         <v>5</v>
       </c>
-      <c r="M14" s="18"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21">
-        <f>$B$2*$B5</f>
+      <c r="B15" s="14">
+        <f t="shared" ref="B15:B20" si="0">$B$2*$B5</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="C15" s="22">
-        <f>$B$3*$C5</f>
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:C20" si="1">$B$3*$C5</f>
         <v>0</v>
       </c>
-      <c r="D15" s="21">
-        <f>$B$2*$B5*(1 + D$14*$B$1)</f>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:D20" si="2">$B$2*$B5*(1 + D$14*$B$1)</f>
         <v>8.9250000000000007</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="15">
         <f>$B$3*$C5*(1 + D$14*$B$1)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
-        <f t="shared" ref="F15:M15" si="0">$B$2*$B5*(1 + F$14*$B$1)</f>
+      <c r="F15" s="14">
+        <f t="shared" ref="F15:F20" si="3">$B$2*$B5*(1 + F$14*$B$1)</f>
         <v>12.750000000000002</v>
       </c>
-      <c r="G15" s="22">
-        <f t="shared" ref="G15:M15" si="1">$B$3*$C5*(1 + F$14*$B$1)</f>
+      <c r="G15" s="15">
+        <f>$B$3*$C5*(1 + F$14*$B$1)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="21">
-        <f t="shared" ref="H15:M15" si="2">$B$2*$B5*(1 + H$14*$B$1)</f>
+      <c r="H15" s="14">
+        <f t="shared" ref="H15:H20" si="4">$B$2*$B5*(1 + H$14*$B$1)</f>
         <v>16.575000000000003</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" ref="I15:M15" si="3">$B$3*$C5*(1 + H$14*$B$1)</f>
+      <c r="I15" s="15">
+        <f>$B$3*$C5*(1 + H$14*$B$1)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="21">
-        <f t="shared" ref="J15:M15" si="4">$B$2*$B5*(1 + J$14*$B$1)</f>
+      <c r="J15" s="14">
+        <f t="shared" ref="J15:J20" si="5">$B$2*$B5*(1 + J$14*$B$1)</f>
         <v>20.400000000000002</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" ref="K15:M15" si="5">$B$3*$C5*(1 + J$14*$B$1)</f>
+      <c r="K15" s="15">
+        <f>$B$3*$C5*(1 + J$14*$B$1)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="21">
-        <f t="shared" ref="L15:M15" si="6">$B$2*$B5*(1 + L$14*$B$1)</f>
+      <c r="L15" s="14">
+        <f t="shared" ref="L15:L20" si="6">$B$2*$B5*(1 + L$14*$B$1)</f>
         <v>24.225000000000001</v>
       </c>
-      <c r="M15" s="22">
-        <f t="shared" ref="M15" si="7">$B$3*$C5*(1 + L$14*$B$1)</f>
+      <c r="M15" s="15">
+        <f>$B$3*$C5*(1 + L$14*$B$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -10026,52 +11659,52 @@
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21">
-        <f>$B$2*$B6</f>
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="22">
-        <f t="shared" ref="C16:M20" si="8">$B$3*$C6</f>
+      <c r="C16" s="15">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D16" s="21">
-        <f>$B$2*$B6*(1 + D$14*$B$1)</f>
+      <c r="D16" s="14">
+        <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
-      <c r="E16" s="22">
-        <f t="shared" ref="E16:M20" si="9">$B$3*$C6*(1 + D$14*$B$1)</f>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:M20" si="7">$B$3*$C6*(1 + D$14*$B$1)</f>
         <v>14</v>
       </c>
-      <c r="F16" s="21">
-        <f t="shared" ref="F16:M16" si="10">$B$2*$B6*(1 + F$14*$B$1)</f>
+      <c r="F16" s="14">
+        <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
-      <c r="G16" s="22">
-        <f t="shared" si="9"/>
+      <c r="G16" s="15">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="H16" s="21">
-        <f t="shared" ref="H16:M16" si="11">$B$2*$B6*(1 + H$14*$B$1)</f>
+      <c r="H16" s="14">
+        <f t="shared" si="4"/>
         <v>29.25</v>
       </c>
-      <c r="I16" s="22">
-        <f t="shared" si="9"/>
+      <c r="I16" s="15">
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="J16" s="21">
-        <f t="shared" ref="J16:M16" si="12">$B$2*$B6*(1 + J$14*$B$1)</f>
+      <c r="J16" s="14">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="K16" s="22">
-        <f t="shared" si="9"/>
+      <c r="K16" s="15">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="L16" s="21">
-        <f t="shared" ref="L16:M16" si="13">$B$2*$B6*(1 + L$14*$B$1)</f>
+      <c r="L16" s="14">
+        <f t="shared" si="6"/>
         <v>42.75</v>
       </c>
-      <c r="M16" s="22">
-        <f t="shared" si="9"/>
+      <c r="M16" s="15">
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
     </row>
@@ -10079,52 +11712,52 @@
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="21">
-        <f>$B$2*$B7</f>
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C17" s="22">
-        <f t="shared" si="8"/>
+      <c r="C17" s="15">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D17" s="21">
-        <f>$B$2*$B7*(1 + D$14*$B$1)</f>
+      <c r="D17" s="14">
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="E17" s="22">
-        <f t="shared" si="9"/>
+      <c r="E17" s="15">
+        <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
-      <c r="F17" s="21">
-        <f t="shared" ref="F17:M17" si="14">$B$2*$B7*(1 + F$14*$B$1)</f>
+      <c r="F17" s="14">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="G17" s="22">
-        <f t="shared" si="9"/>
+      <c r="G17" s="15">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="H17" s="21">
-        <f t="shared" ref="H17:M17" si="15">$B$2*$B7*(1 + H$14*$B$1)</f>
+      <c r="H17" s="14">
+        <f t="shared" si="4"/>
         <v>97.5</v>
       </c>
-      <c r="I17" s="22">
-        <f t="shared" si="9"/>
+      <c r="I17" s="15">
+        <f t="shared" si="7"/>
         <v>32.5</v>
       </c>
-      <c r="J17" s="21">
-        <f t="shared" ref="J17:M17" si="16">$B$2*$B7*(1 + J$14*$B$1)</f>
+      <c r="J17" s="14">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="K17" s="22">
-        <f t="shared" si="9"/>
+      <c r="K17" s="15">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="L17" s="21">
-        <f t="shared" ref="L17:M17" si="17">$B$2*$B7*(1 + L$14*$B$1)</f>
+      <c r="L17" s="14">
+        <f t="shared" si="6"/>
         <v>142.5</v>
       </c>
-      <c r="M17" s="22">
-        <f t="shared" si="9"/>
+      <c r="M17" s="15">
+        <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
     </row>
@@ -10132,52 +11765,52 @@
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="21">
-        <f>$B$2*$B8</f>
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C18" s="22">
-        <f t="shared" si="8"/>
+      <c r="C18" s="15">
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="D18" s="21">
-        <f>$B$2*$B8*(1 + D$14*$B$1)</f>
+      <c r="D18" s="14">
+        <f t="shared" si="2"/>
         <v>89.25</v>
       </c>
-      <c r="E18" s="22">
-        <f t="shared" si="9"/>
+      <c r="E18" s="15">
+        <f t="shared" si="7"/>
         <v>21.875</v>
       </c>
-      <c r="F18" s="21">
-        <f t="shared" ref="F18:M18" si="18">$B$2*$B8*(1 + F$14*$B$1)</f>
+      <c r="F18" s="14">
+        <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
-      <c r="G18" s="22">
-        <f t="shared" si="9"/>
+      <c r="G18" s="15">
+        <f t="shared" si="7"/>
         <v>31.25</v>
       </c>
-      <c r="H18" s="21">
-        <f t="shared" ref="H18:M18" si="19">$B$2*$B8*(1 + H$14*$B$1)</f>
+      <c r="H18" s="14">
+        <f t="shared" si="4"/>
         <v>165.75</v>
       </c>
-      <c r="I18" s="22">
-        <f t="shared" si="9"/>
+      <c r="I18" s="15">
+        <f t="shared" si="7"/>
         <v>40.625</v>
       </c>
-      <c r="J18" s="21">
-        <f t="shared" ref="J18:M18" si="20">$B$2*$B8*(1 + J$14*$B$1)</f>
+      <c r="J18" s="14">
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
-      <c r="K18" s="22">
-        <f t="shared" si="9"/>
+      <c r="K18" s="15">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="L18" s="21">
-        <f t="shared" ref="L18:M18" si="21">$B$2*$B8*(1 + L$14*$B$1)</f>
+      <c r="L18" s="14">
+        <f t="shared" si="6"/>
         <v>242.25</v>
       </c>
-      <c r="M18" s="22">
-        <f t="shared" si="9"/>
+      <c r="M18" s="15">
+        <f t="shared" si="7"/>
         <v>59.375</v>
       </c>
     </row>
@@ -10185,52 +11818,52 @@
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21">
-        <f>$B$2*$B9</f>
+      <c r="B19" s="14">
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="C19" s="22">
-        <f t="shared" si="8"/>
+      <c r="C19" s="15">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D19" s="21">
-        <f>$B$2*$B9*(1 + D$14*$B$1)</f>
+      <c r="D19" s="14">
+        <f t="shared" si="2"/>
         <v>351.75</v>
       </c>
-      <c r="E19" s="22">
-        <f t="shared" si="9"/>
+      <c r="E19" s="15">
+        <f t="shared" si="7"/>
         <v>26.25</v>
       </c>
-      <c r="F19" s="21">
-        <f t="shared" ref="F19:M19" si="22">$B$2*$B9*(1 + F$14*$B$1)</f>
+      <c r="F19" s="14">
+        <f t="shared" si="3"/>
         <v>502.5</v>
       </c>
-      <c r="G19" s="22">
-        <f t="shared" si="9"/>
+      <c r="G19" s="15">
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="H19" s="21">
-        <f t="shared" ref="H19:M19" si="23">$B$2*$B9*(1 + H$14*$B$1)</f>
+      <c r="H19" s="14">
+        <f t="shared" si="4"/>
         <v>653.25</v>
       </c>
-      <c r="I19" s="22">
-        <f t="shared" si="9"/>
+      <c r="I19" s="15">
+        <f t="shared" si="7"/>
         <v>48.75</v>
       </c>
-      <c r="J19" s="21">
-        <f t="shared" ref="J19:M19" si="24">$B$2*$B9*(1 + J$14*$B$1)</f>
+      <c r="J19" s="14">
+        <f t="shared" si="5"/>
         <v>804</v>
       </c>
-      <c r="K19" s="22">
-        <f t="shared" si="9"/>
+      <c r="K19" s="15">
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="L19" s="21">
-        <f t="shared" ref="L19:M19" si="25">$B$2*$B9*(1 + L$14*$B$1)</f>
+      <c r="L19" s="14">
+        <f t="shared" si="6"/>
         <v>954.75</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" si="9"/>
+      <c r="M19" s="15">
+        <f t="shared" si="7"/>
         <v>71.25</v>
       </c>
     </row>
@@ -10238,52 +11871,52 @@
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="21">
-        <f>$B$2*$B10</f>
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="C20" s="22">
-        <f t="shared" si="8"/>
+      <c r="C20" s="15">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D20" s="21">
-        <f>$B$2*$B10*(1 + D$14*$B$1)</f>
+      <c r="D20" s="14">
+        <f t="shared" si="2"/>
         <v>876.75</v>
       </c>
-      <c r="E20" s="22">
-        <f t="shared" si="9"/>
+      <c r="E20" s="15">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="F20" s="21">
-        <f t="shared" ref="F20:M20" si="26">$B$2*$B10*(1 + F$14*$B$1)</f>
+      <c r="F20" s="14">
+        <f t="shared" si="3"/>
         <v>1252.5</v>
       </c>
-      <c r="G20" s="22">
-        <f t="shared" si="9"/>
+      <c r="G20" s="15">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="H20" s="21">
-        <f t="shared" ref="H20:M20" si="27">$B$2*$B10*(1 + H$14*$B$1)</f>
+      <c r="H20" s="14">
+        <f t="shared" si="4"/>
         <v>1628.25</v>
       </c>
-      <c r="I20" s="22">
-        <f t="shared" si="9"/>
+      <c r="I20" s="15">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="J20" s="21">
-        <f t="shared" ref="J20:M20" si="28">$B$2*$B10*(1 + J$14*$B$1)</f>
+      <c r="J20" s="14">
+        <f t="shared" si="5"/>
         <v>2004</v>
       </c>
-      <c r="K20" s="22">
-        <f t="shared" si="9"/>
+      <c r="K20" s="15">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="L20" s="21">
-        <f t="shared" ref="L20:M20" si="29">$B$2*$B10*(1 + L$14*$B$1)</f>
+      <c r="L20" s="14">
+        <f t="shared" si="6"/>
         <v>2379.75</v>
       </c>
-      <c r="M20" s="22">
-        <f t="shared" si="9"/>
+      <c r="M20" s="15">
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
     </row>
@@ -10297,7 +11930,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="8">
         <v>30</v>
@@ -10305,9 +11938,9 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="23">
+        <v>80</v>
+      </c>
+      <c r="B25" s="16">
         <v>0.3</v>
       </c>
     </row>
@@ -10318,7 +11951,7 @@
       <c r="B27" s="8">
         <v>0.17</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10329,7 +11962,7 @@
       <c r="B28" s="8">
         <v>0.3</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -10340,7 +11973,7 @@
       <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="16">
         <v>1</v>
       </c>
     </row>
@@ -10351,7 +11984,7 @@
       <c r="B30" s="8">
         <v>1.7</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="16">
         <v>1.25</v>
       </c>
     </row>
@@ -10362,7 +11995,7 @@
       <c r="B31" s="8">
         <v>6.7</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -10373,135 +12006,135 @@
       <c r="B32" s="8">
         <v>16.7</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="A34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M35" s="19"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="24">
         <v>0</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24">
         <v>1</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19">
+      <c r="E36" s="24"/>
+      <c r="F36" s="24">
         <v>2</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24">
         <v>3</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19">
+      <c r="I36" s="24"/>
+      <c r="J36" s="24">
         <v>4</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19">
+      <c r="K36" s="24"/>
+      <c r="L36" s="24">
         <v>5</v>
       </c>
-      <c r="M36" s="19"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="21">
-        <f>$B$24*$B27</f>
+      <c r="B37" s="14">
+        <f t="shared" ref="B37:B42" si="8">$B$24*$B27</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="C37" s="22">
-        <f>$B$24*$B$25*$C27</f>
+      <c r="C37" s="15">
+        <f t="shared" ref="C37:C42" si="9">$B$24*$B$25*$C27</f>
         <v>0</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="14">
         <f>$B$24*$B27*(1 + D$36*$B$23)</f>
         <v>8.9250000000000007</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="15">
         <f>$B$24*$B$25*$C27*(1 + D$36*$B$23)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="21">
-        <f t="shared" ref="F37:M37" si="30">$B$24*$B27*(1 + F$36*$B$23)</f>
+      <c r="F37" s="14">
+        <f>$B$24*$B27*(1 + F$36*$B$23)</f>
         <v>12.750000000000002</v>
       </c>
-      <c r="G37" s="22">
-        <f t="shared" ref="G37:M37" si="31">$B$24*$B$25*$C27*(1 + F$36*$B$23)</f>
+      <c r="G37" s="15">
+        <f>$B$24*$B$25*$C27*(1 + F$36*$B$23)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="21">
-        <f t="shared" ref="H37:M37" si="32">$B$24*$B27*(1 + H$36*$B$23)</f>
+      <c r="H37" s="14">
+        <f>$B$24*$B27*(1 + H$36*$B$23)</f>
         <v>16.575000000000003</v>
       </c>
-      <c r="I37" s="22">
-        <f t="shared" ref="I37:M37" si="33">$B$24*$B$25*$C27*(1 + H$36*$B$23)</f>
+      <c r="I37" s="15">
+        <f>$B$24*$B$25*$C27*(1 + H$36*$B$23)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="21">
-        <f t="shared" ref="J37:M37" si="34">$B$24*$B27*(1 + J$36*$B$23)</f>
+      <c r="J37" s="14">
+        <f>$B$24*$B27*(1 + J$36*$B$23)</f>
         <v>20.400000000000002</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="15">
         <f>$B$24*$B$25*$C27*(1 + J$36*$B$23)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="21">
-        <f t="shared" ref="L37:M37" si="35">$B$24*$B27*(1 + L$36*$B$23)</f>
+      <c r="L37" s="14">
+        <f>$B$24*$B27*(1 + L$36*$B$23)</f>
         <v>24.225000000000001</v>
       </c>
-      <c r="M37" s="22">
-        <f t="shared" ref="M37" si="36">$B$24*$B$25*$C27*(1 + L$36*$B$23)</f>
+      <c r="M37" s="15">
+        <f>$B$24*$B$25*$C27*(1 + L$36*$B$23)</f>
         <v>0</v>
       </c>
     </row>
@@ -10509,52 +12142,52 @@
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="21">
-        <f t="shared" ref="B38:B42" si="37">$B$24*$B28</f>
+      <c r="B38" s="14">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C38" s="22">
-        <f t="shared" ref="C38:C42" si="38">$B$24*$B$25*$C28</f>
+      <c r="C38" s="15">
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
-      <c r="D38" s="21">
-        <f t="shared" ref="D38:L42" si="39">$B$24*$B28*(1 + D$36*$B$23)</f>
+      <c r="D38" s="14">
+        <f t="shared" ref="D38:L42" si="10">$B$24*$B28*(1 + D$36*$B$23)</f>
         <v>15.75</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="15">
         <f>$B$24*$B$25*$C28*(1 + D$36*$B$23)</f>
         <v>12.6</v>
       </c>
-      <c r="F38" s="21">
-        <f t="shared" si="39"/>
+      <c r="F38" s="14">
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
-      <c r="G38" s="22">
-        <f t="shared" ref="E38:M42" si="40">$B$24*$B$25*$C28*(1 + F$36*$B$23)</f>
+      <c r="G38" s="15">
+        <f t="shared" ref="E38:M42" si="11">$B$24*$B$25*$C28*(1 + F$36*$B$23)</f>
         <v>18</v>
       </c>
-      <c r="H38" s="21">
-        <f t="shared" si="39"/>
+      <c r="H38" s="14">
+        <f t="shared" si="10"/>
         <v>29.25</v>
       </c>
-      <c r="I38" s="22">
-        <f t="shared" si="40"/>
+      <c r="I38" s="15">
+        <f t="shared" si="11"/>
         <v>23.400000000000002</v>
       </c>
-      <c r="J38" s="21">
-        <f t="shared" si="39"/>
+      <c r="J38" s="14">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="K38" s="22">
-        <f t="shared" si="40"/>
+      <c r="K38" s="15">
+        <f t="shared" si="11"/>
         <v>28.8</v>
       </c>
-      <c r="L38" s="21">
-        <f t="shared" si="39"/>
+      <c r="L38" s="14">
+        <f t="shared" si="10"/>
         <v>42.75</v>
       </c>
-      <c r="M38" s="22">
-        <f t="shared" si="40"/>
+      <c r="M38" s="15">
+        <f t="shared" si="11"/>
         <v>34.200000000000003</v>
       </c>
     </row>
@@ -10562,52 +12195,52 @@
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="21">
-        <f t="shared" si="37"/>
+      <c r="B39" s="14">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="C39" s="22">
-        <f t="shared" si="38"/>
+      <c r="C39" s="15">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="D39" s="21">
-        <f t="shared" si="39"/>
+      <c r="D39" s="14">
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
-      <c r="E39" s="22">
-        <f t="shared" si="40"/>
+      <c r="E39" s="15">
+        <f t="shared" si="11"/>
         <v>15.75</v>
       </c>
-      <c r="F39" s="21">
-        <f t="shared" si="39"/>
+      <c r="F39" s="14">
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="G39" s="22">
-        <f t="shared" si="40"/>
+      <c r="G39" s="15">
+        <f t="shared" si="11"/>
         <v>22.5</v>
       </c>
-      <c r="H39" s="21">
-        <f t="shared" si="39"/>
+      <c r="H39" s="14">
+        <f t="shared" si="10"/>
         <v>97.5</v>
       </c>
-      <c r="I39" s="22">
-        <f t="shared" si="40"/>
+      <c r="I39" s="15">
+        <f t="shared" si="11"/>
         <v>29.25</v>
       </c>
-      <c r="J39" s="21">
-        <f t="shared" si="39"/>
+      <c r="J39" s="14">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="K39" s="22">
-        <f t="shared" si="40"/>
+      <c r="K39" s="15">
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="L39" s="21">
-        <f t="shared" si="39"/>
+      <c r="L39" s="14">
+        <f t="shared" si="10"/>
         <v>142.5</v>
       </c>
-      <c r="M39" s="22">
-        <f t="shared" si="40"/>
+      <c r="M39" s="15">
+        <f t="shared" si="11"/>
         <v>42.75</v>
       </c>
     </row>
@@ -10615,52 +12248,52 @@
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="21">
-        <f t="shared" si="37"/>
+      <c r="B40" s="14">
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="C40" s="22">
-        <f t="shared" si="38"/>
+      <c r="C40" s="15">
+        <f t="shared" si="9"/>
         <v>11.25</v>
       </c>
-      <c r="D40" s="21">
-        <f t="shared" si="39"/>
+      <c r="D40" s="14">
+        <f t="shared" si="10"/>
         <v>89.25</v>
       </c>
-      <c r="E40" s="22">
-        <f t="shared" si="40"/>
+      <c r="E40" s="15">
+        <f t="shared" si="11"/>
         <v>19.6875</v>
       </c>
-      <c r="F40" s="21">
-        <f t="shared" si="39"/>
+      <c r="F40" s="14">
+        <f t="shared" si="10"/>
         <v>127.5</v>
       </c>
-      <c r="G40" s="22">
-        <f t="shared" si="40"/>
+      <c r="G40" s="15">
+        <f t="shared" si="11"/>
         <v>28.125</v>
       </c>
-      <c r="H40" s="21">
-        <f t="shared" si="39"/>
+      <c r="H40" s="14">
+        <f t="shared" si="10"/>
         <v>165.75</v>
       </c>
-      <c r="I40" s="22">
-        <f t="shared" si="40"/>
+      <c r="I40" s="15">
+        <f t="shared" si="11"/>
         <v>36.5625</v>
       </c>
-      <c r="J40" s="21">
-        <f t="shared" si="39"/>
+      <c r="J40" s="14">
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
-      <c r="K40" s="22">
-        <f t="shared" si="40"/>
+      <c r="K40" s="15">
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="L40" s="21">
-        <f t="shared" si="39"/>
+      <c r="L40" s="14">
+        <f t="shared" si="10"/>
         <v>242.25</v>
       </c>
-      <c r="M40" s="22">
-        <f t="shared" si="40"/>
+      <c r="M40" s="15">
+        <f t="shared" si="11"/>
         <v>53.4375</v>
       </c>
     </row>
@@ -10668,52 +12301,52 @@
       <c r="A41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="21">
-        <f t="shared" si="37"/>
+      <c r="B41" s="14">
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="C41" s="22">
-        <f t="shared" si="38"/>
+      <c r="C41" s="15">
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
-      <c r="D41" s="21">
-        <f t="shared" si="39"/>
+      <c r="D41" s="14">
+        <f t="shared" si="10"/>
         <v>351.75</v>
       </c>
-      <c r="E41" s="22">
-        <f t="shared" si="40"/>
+      <c r="E41" s="15">
+        <f t="shared" si="11"/>
         <v>23.625</v>
       </c>
-      <c r="F41" s="21">
-        <f t="shared" si="39"/>
+      <c r="F41" s="14">
+        <f t="shared" si="10"/>
         <v>502.5</v>
       </c>
-      <c r="G41" s="22">
-        <f t="shared" si="40"/>
+      <c r="G41" s="15">
+        <f t="shared" si="11"/>
         <v>33.75</v>
       </c>
-      <c r="H41" s="21">
-        <f t="shared" si="39"/>
+      <c r="H41" s="14">
+        <f t="shared" si="10"/>
         <v>653.25</v>
       </c>
-      <c r="I41" s="22">
-        <f t="shared" si="40"/>
+      <c r="I41" s="15">
+        <f t="shared" si="11"/>
         <v>43.875</v>
       </c>
-      <c r="J41" s="21">
-        <f t="shared" si="39"/>
+      <c r="J41" s="14">
+        <f t="shared" si="10"/>
         <v>804</v>
       </c>
-      <c r="K41" s="22">
-        <f t="shared" si="40"/>
+      <c r="K41" s="15">
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
-      <c r="L41" s="21">
-        <f t="shared" si="39"/>
+      <c r="L41" s="14">
+        <f t="shared" si="10"/>
         <v>954.75</v>
       </c>
-      <c r="M41" s="22">
-        <f t="shared" si="40"/>
+      <c r="M41" s="15">
+        <f t="shared" si="11"/>
         <v>64.125</v>
       </c>
     </row>
@@ -10721,52 +12354,52 @@
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="21">
-        <f t="shared" si="37"/>
+      <c r="B42" s="14">
+        <f t="shared" si="8"/>
         <v>501</v>
       </c>
-      <c r="C42" s="22">
-        <f t="shared" si="38"/>
+      <c r="C42" s="15">
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D42" s="21">
-        <f t="shared" si="39"/>
+      <c r="D42" s="14">
+        <f t="shared" si="10"/>
         <v>876.75</v>
       </c>
-      <c r="E42" s="22">
-        <f t="shared" si="40"/>
+      <c r="E42" s="15">
+        <f t="shared" si="11"/>
         <v>31.5</v>
       </c>
-      <c r="F42" s="21">
-        <f t="shared" si="39"/>
+      <c r="F42" s="14">
+        <f t="shared" si="10"/>
         <v>1252.5</v>
       </c>
-      <c r="G42" s="22">
-        <f t="shared" si="40"/>
+      <c r="G42" s="15">
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="H42" s="21">
-        <f t="shared" si="39"/>
+      <c r="H42" s="14">
+        <f t="shared" si="10"/>
         <v>1628.25</v>
       </c>
-      <c r="I42" s="22">
-        <f t="shared" si="40"/>
+      <c r="I42" s="15">
+        <f t="shared" si="11"/>
         <v>58.5</v>
       </c>
-      <c r="J42" s="21">
-        <f t="shared" si="39"/>
+      <c r="J42" s="14">
+        <f t="shared" si="10"/>
         <v>2004</v>
       </c>
-      <c r="K42" s="22">
-        <f t="shared" si="40"/>
+      <c r="K42" s="15">
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
-      <c r="L42" s="21">
-        <f t="shared" si="39"/>
+      <c r="L42" s="14">
+        <f t="shared" si="10"/>
         <v>2379.75</v>
       </c>
-      <c r="M42" s="22">
-        <f t="shared" si="40"/>
+      <c r="M42" s="15">
+        <f t="shared" si="11"/>
         <v>85.5</v>
       </c>
     </row>
@@ -10807,10 +12440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C20EBD1-217D-4C61-BC07-287107A38603}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10819,7 +12452,7 @@
     <col min="2" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10827,787 +12460,1691 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
         <v>0.25</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
       </c>
       <c r="E7" s="8">
         <v>0.17</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
       </c>
       <c r="E8" s="8">
         <v>0.3</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1.25</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="23">
-        <v>1.25</v>
+      <c r="C10" s="16">
+        <v>1.5</v>
       </c>
       <c r="E10" s="8">
         <v>1.7</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16">
         <v>1.75</v>
       </c>
       <c r="E11" s="8">
         <v>6.7</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8">
-        <v>20</v>
-      </c>
-      <c r="C12" s="23">
+        <v>30</v>
+      </c>
+      <c r="C12" s="16">
         <v>2</v>
       </c>
       <c r="E12" s="8">
         <v>16.7</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="19" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="24"/>
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="24">
         <v>0</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19">
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20">
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="27">
         <v>2</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="19">
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="24">
         <v>3</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19">
+      <c r="L15" s="24"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24">
         <v>4</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19">
+      <c r="O15" s="24"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24">
         <v>5</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="27">
+      <c r="R15" s="24"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24">
+        <v>6</v>
+      </c>
+      <c r="U15" s="24"/>
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="26">
         <f>3*$B$2 +1</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26">
         <f>(1+$B$1*E15)*3*$B$2+1</f>
-        <v>16.75</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27">
-        <f t="shared" ref="H16" si="0">(1+$B$1*H15)*3*$B$2+1</f>
-        <v>23.5</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27">
-        <f t="shared" ref="K16" si="1">(1+$B$1*K15)*3*$B$2+1</f>
-        <v>30.25</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27">
-        <f t="shared" ref="N16" si="2">(1+$B$1*N15)*3*$B$2+1</f>
-        <v>37</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27">
-        <f t="shared" ref="Q16" si="3">(1+$B$1*Q15)*3*$B$2+1</f>
-        <v>43.75</v>
-      </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="27">
+        <v>22</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26">
+        <f>(1+$B$1*H15)*3*$B$2+1</f>
+        <v>31</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26">
+        <f>(1+$B$1*K15)*3*$B$2+1</f>
+        <v>40</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26">
+        <f>(1+$B$1*N15)*3*$B$2+1</f>
+        <v>49</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26">
+        <f>(1+$B$1*Q15)*3*$B$2+1</f>
+        <v>58</v>
+      </c>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26">
+        <f>(1+$B$1*T15)*3*$B$2+1</f>
+        <v>67</v>
+      </c>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="26">
         <f>$B$3</f>
         <v>12</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
         <f>(1+$B$1*E15)*$B$3</f>
         <v>21</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27">
-        <f t="shared" ref="H17:S17" si="4">(1+$B$1*H15)*$B$3</f>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26">
+        <f>(1+$B$1*H15)*$B$3</f>
         <v>30</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27">
-        <f t="shared" ref="K17:S17" si="5">(1+$B$1*K15)*$B$3</f>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26">
+        <f>(1+$B$1*K15)*$B$3</f>
         <v>39</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27">
-        <f t="shared" ref="N17:S17" si="6">(1+$B$1*N15)*$B$3</f>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26">
+        <f>(1+$B$1*N15)*$B$3</f>
         <v>48</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27">
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26">
         <f>(1+$B$1*Q15)*$B$3</f>
         <v>57</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26">
+        <f>(1+$B$1*T15)*$B$3</f>
+        <v>66</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="21">
-        <f>$B$17*$B7*$B$4</f>
-        <v>3</v>
-      </c>
-      <c r="C18" s="22">
+      <c r="B18" s="14">
+        <f t="shared" ref="B18:B23" si="0">$B$17*$B7*$B$4</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="15">
         <f>$B$16*$B$5*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="28">
-        <f>C18/B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="21">
-        <f>E$17*$B$4*$B7</f>
-        <v>5.25</v>
-      </c>
-      <c r="F18" s="22">
-        <f>E$16*$B$5*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="28">
-        <f>F18/E18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
-        <f>H$17*$B$4*$B7</f>
-        <v>7.5</v>
-      </c>
-      <c r="I18" s="22">
-        <f>H$16*$B$5*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="28">
-        <f>I18/H18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="21">
-        <f>K$17*$B$4*$B7</f>
-        <v>9.75</v>
-      </c>
-      <c r="L18" s="22">
-        <f>K$16*$B$5*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="28">
-        <f t="shared" ref="M18:M23" si="7">L18/K18</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="21">
-        <f>N$17*$B$4*$B7</f>
-        <v>12</v>
-      </c>
-      <c r="O18" s="22">
-        <f>N$16*$B$5*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="28">
-        <f t="shared" ref="P18:P23" si="8">O18/N18</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="21">
-        <f>Q$17*$B$4*$B7</f>
-        <v>14.25</v>
-      </c>
-      <c r="R18" s="22">
-        <f>Q$16*$B$5*$C7</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="28">
-        <f t="shared" ref="S18:S23" si="9">R18/Q18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3.25</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" ref="D18:D23" si="1">C18/B18</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E23" si="2">E$17*$B$4*$B7</f>
+        <v>21</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" ref="F18:F23" si="3">E$16*$B$5*$C7</f>
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" ref="G18:G23" si="4">F18/E18</f>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" ref="H18:H23" si="5">H$17*$B$4*$B7</f>
+        <v>30</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" ref="I18:I23" si="6">H$16*$B$5*$C7</f>
+        <v>7.75</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" ref="J18:J23" si="7">I18/H18</f>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18:K23" si="8">K$17*$B$4*$B7</f>
+        <v>39</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" ref="L18:L23" si="9">K$16*$B$5*$C7</f>
+        <v>10</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" ref="M18:M23" si="10">L18/K18</f>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" ref="N18:N23" si="11">N$17*$B$4*$B7</f>
+        <v>48</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" ref="O18:O23" si="12">N$16*$B$5*$C7</f>
+        <v>12.25</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" ref="P18:P23" si="13">O18/N18</f>
+        <v>0.25520833333333331</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" ref="Q18:Q23" si="14">Q$17*$B$4*$B7</f>
+        <v>57</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" ref="R18:R23" si="15">Q$16*$B$5*$C7</f>
+        <v>14.5</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" ref="S18:S23" si="16">R18/Q18</f>
+        <v>0.25438596491228072</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" ref="T18:T23" si="17">T$17*$B$4*$B7</f>
+        <v>66</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" ref="U18:U23" si="18">T$16*$B$5*$C7</f>
+        <v>16.75</v>
+      </c>
+      <c r="V18" s="17">
+        <f t="shared" ref="V18:V23" si="19">U18/T18</f>
+        <v>0.25378787878787878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="21">
-        <f t="shared" ref="B19:B23" si="10">$B$17*$B8*$B$4</f>
-        <v>6</v>
-      </c>
-      <c r="C19" s="22">
-        <f>$B$16*$B$5*$C8</f>
-        <v>5</v>
-      </c>
-      <c r="D19" s="28">
-        <f t="shared" ref="D19:D22" si="11">C19/B19</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E19" s="21">
-        <f t="shared" ref="E19:E23" si="12">E$17*$B$4*$B8</f>
-        <v>10.5</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" ref="F19:F23" si="13">E$16*$B$5*$C8</f>
-        <v>8.375</v>
-      </c>
-      <c r="G19" s="28">
-        <f t="shared" ref="G19:G22" si="14">F19/E19</f>
-        <v>0.79761904761904767</v>
-      </c>
-      <c r="H19" s="21">
-        <f t="shared" ref="H19:H23" si="15">H$17*$B$4*$B8</f>
-        <v>15</v>
-      </c>
-      <c r="I19" s="22">
-        <f t="shared" ref="I19:I23" si="16">H$16*$B$5*$C8</f>
-        <v>11.75</v>
-      </c>
-      <c r="J19" s="28">
-        <f t="shared" ref="J19:J22" si="17">I19/H19</f>
-        <v>0.78333333333333333</v>
-      </c>
-      <c r="K19" s="21">
-        <f t="shared" ref="K19:K23" si="18">K$17*$B$4*$B8</f>
-        <v>19.5</v>
-      </c>
-      <c r="L19" s="22">
-        <f t="shared" ref="L19:L23" si="19">K$16*$B$5*$C8</f>
-        <v>15.125</v>
-      </c>
-      <c r="M19" s="28">
-        <f t="shared" si="7"/>
-        <v>0.77564102564102566</v>
-      </c>
-      <c r="N19" s="21">
-        <f t="shared" ref="N19:N23" si="20">N$17*$B$4*$B8</f>
-        <v>24</v>
-      </c>
-      <c r="O19" s="22">
-        <f t="shared" ref="O19:O23" si="21">N$16*$B$5*$C8</f>
-        <v>18.5</v>
-      </c>
-      <c r="P19" s="28">
+      <c r="B19" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" ref="C19:C23" si="20">$B$16*$B$5*$C8</f>
+        <v>13</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="1"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="4"/>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J19" s="17">
+        <f>I19/H19</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="K19" s="14">
         <f t="shared" si="8"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="Q19" s="21">
-        <f t="shared" ref="Q19:Q23" si="22">Q$17*$B$4*$B8</f>
-        <v>28.5</v>
-      </c>
-      <c r="R19" s="22">
-        <f t="shared" ref="R19:R23" si="23">Q$16*$B$5*$C8</f>
-        <v>21.875</v>
-      </c>
-      <c r="S19" s="28">
+        <v>58.5</v>
+      </c>
+      <c r="L19" s="15">
         <f t="shared" si="9"/>
-        <v>0.76754385964912286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="10"/>
+        <v>0.68376068376068377</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="13"/>
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="14"/>
+        <v>85.5</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="15"/>
+        <v>58</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="16"/>
+        <v>0.67836257309941517</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="17"/>
+        <v>99</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="18"/>
+        <v>67</v>
+      </c>
+      <c r="V19" s="17">
+        <f t="shared" si="19"/>
+        <v>0.6767676767676768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="20"/>
+        <v>16.25</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="1"/>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="4"/>
+        <v>0.43650793650793651</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="6"/>
+        <v>38.75</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="7"/>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M20" s="17">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="C20" s="22">
-        <f>$B$16*$B$5*$C9</f>
-        <v>10</v>
-      </c>
-      <c r="D20" s="28">
+        <v>0.42735042735042733</v>
+      </c>
+      <c r="N20" s="14">
         <f t="shared" si="11"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E20" s="21">
+        <v>144</v>
+      </c>
+      <c r="O20" s="15">
         <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="F20" s="22">
+        <v>61.25</v>
+      </c>
+      <c r="P20" s="17">
         <f t="shared" si="13"/>
-        <v>16.75</v>
-      </c>
-      <c r="G20" s="28">
+        <v>0.42534722222222221</v>
+      </c>
+      <c r="Q20" s="14">
         <f t="shared" si="14"/>
-        <v>0.79761904761904767</v>
-      </c>
-      <c r="H20" s="21">
+        <v>171</v>
+      </c>
+      <c r="R20" s="15">
         <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="I20" s="22">
+        <v>72.5</v>
+      </c>
+      <c r="S20" s="17">
         <f t="shared" si="16"/>
-        <v>23.5</v>
-      </c>
-      <c r="J20" s="28">
+        <v>0.42397660818713451</v>
+      </c>
+      <c r="T20" s="14">
         <f t="shared" si="17"/>
-        <v>0.78333333333333333</v>
-      </c>
-      <c r="K20" s="21">
+        <v>198</v>
+      </c>
+      <c r="U20" s="15">
         <f t="shared" si="18"/>
-        <v>39</v>
-      </c>
-      <c r="L20" s="22">
+        <v>83.75</v>
+      </c>
+      <c r="V20" s="17">
         <f t="shared" si="19"/>
-        <v>30.25</v>
-      </c>
-      <c r="M20" s="28">
-        <f t="shared" si="7"/>
-        <v>0.77564102564102566</v>
-      </c>
-      <c r="N20" s="21">
-        <f t="shared" si="20"/>
-        <v>48</v>
-      </c>
-      <c r="O20" s="22">
-        <f t="shared" si="21"/>
-        <v>37</v>
-      </c>
-      <c r="P20" s="28">
-        <f t="shared" si="8"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="Q20" s="21">
-        <f t="shared" si="22"/>
-        <v>57</v>
-      </c>
-      <c r="R20" s="22">
-        <f t="shared" si="23"/>
-        <v>43.75</v>
-      </c>
-      <c r="S20" s="28">
-        <f t="shared" si="9"/>
-        <v>0.76754385964912286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.42297979797979796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="20"/>
+        <v>19.5</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="4"/>
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="6"/>
+        <v>46.5</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M21" s="17">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="C21" s="22">
-        <f>$B$16*$B$5*$C10</f>
-        <v>12.5</v>
-      </c>
-      <c r="D21" s="28">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N21" s="14">
         <f t="shared" si="11"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E21" s="21">
+        <v>240</v>
+      </c>
+      <c r="O21" s="15">
         <f t="shared" si="12"/>
-        <v>105</v>
-      </c>
-      <c r="F21" s="22">
+        <v>73.5</v>
+      </c>
+      <c r="P21" s="17">
         <f t="shared" si="13"/>
-        <v>20.9375</v>
-      </c>
-      <c r="G21" s="28">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="Q21" s="14">
         <f t="shared" si="14"/>
-        <v>0.19940476190476192</v>
-      </c>
-      <c r="H21" s="21">
+        <v>285</v>
+      </c>
+      <c r="R21" s="15">
         <f t="shared" si="15"/>
-        <v>150</v>
-      </c>
-      <c r="I21" s="22">
+        <v>87</v>
+      </c>
+      <c r="S21" s="17">
         <f t="shared" si="16"/>
-        <v>29.375</v>
-      </c>
-      <c r="J21" s="28">
+        <v>0.30526315789473685</v>
+      </c>
+      <c r="T21" s="14">
         <f t="shared" si="17"/>
-        <v>0.19583333333333333</v>
-      </c>
-      <c r="K21" s="21">
+        <v>330</v>
+      </c>
+      <c r="U21" s="15">
         <f t="shared" si="18"/>
-        <v>195</v>
-      </c>
-      <c r="L21" s="22">
+        <v>100.5</v>
+      </c>
+      <c r="V21" s="17">
         <f t="shared" si="19"/>
-        <v>37.8125</v>
-      </c>
-      <c r="M21" s="28">
-        <f t="shared" si="7"/>
-        <v>0.19391025641025642</v>
-      </c>
-      <c r="N21" s="21">
-        <f t="shared" si="20"/>
-        <v>240</v>
-      </c>
-      <c r="O21" s="22">
-        <f t="shared" si="21"/>
-        <v>46.25</v>
-      </c>
-      <c r="P21" s="28">
-        <f t="shared" si="8"/>
-        <v>0.19270833333333334</v>
-      </c>
-      <c r="Q21" s="21">
-        <f t="shared" si="22"/>
-        <v>285</v>
-      </c>
-      <c r="R21" s="22">
-        <f t="shared" si="23"/>
-        <v>54.6875</v>
-      </c>
-      <c r="S21" s="28">
-        <f t="shared" si="9"/>
-        <v>0.19188596491228072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.30454545454545456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="14">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="20"/>
+        <v>22.75</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="1"/>
+        <v>9.4791666666666663E-2</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="4"/>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="6"/>
+        <v>54.25</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="7"/>
+        <v>9.0416666666666673E-2</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="M22" s="17">
         <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="C22" s="22">
-        <f>$B$16*$B$5*$C11</f>
-        <v>17.5</v>
-      </c>
-      <c r="D22" s="28">
+        <v>8.9743589743589744E-2</v>
+      </c>
+      <c r="N22" s="14">
         <f t="shared" si="11"/>
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E22" s="21">
+        <v>960</v>
+      </c>
+      <c r="O22" s="15">
         <f t="shared" si="12"/>
-        <v>210</v>
-      </c>
-      <c r="F22" s="22">
+        <v>85.75</v>
+      </c>
+      <c r="P22" s="17">
         <f t="shared" si="13"/>
-        <v>29.3125</v>
-      </c>
-      <c r="G22" s="28">
+        <v>8.9322916666666669E-2</v>
+      </c>
+      <c r="Q22" s="14">
         <f t="shared" si="14"/>
-        <v>0.13958333333333334</v>
-      </c>
-      <c r="H22" s="21">
+        <v>1140</v>
+      </c>
+      <c r="R22" s="15">
         <f t="shared" si="15"/>
-        <v>300</v>
-      </c>
-      <c r="I22" s="22">
+        <v>101.5</v>
+      </c>
+      <c r="S22" s="17">
         <f t="shared" si="16"/>
-        <v>41.125</v>
-      </c>
-      <c r="J22" s="28">
+        <v>8.9035087719298245E-2</v>
+      </c>
+      <c r="T22" s="14">
         <f t="shared" si="17"/>
-        <v>0.13708333333333333</v>
-      </c>
-      <c r="K22" s="21">
+        <v>1320</v>
+      </c>
+      <c r="U22" s="15">
         <f t="shared" si="18"/>
-        <v>390</v>
-      </c>
-      <c r="L22" s="22">
+        <v>117.25</v>
+      </c>
+      <c r="V22" s="17">
         <f t="shared" si="19"/>
-        <v>52.9375</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" si="7"/>
-        <v>0.13573717948717948</v>
-      </c>
-      <c r="N22" s="21">
-        <f t="shared" si="20"/>
-        <v>480</v>
-      </c>
-      <c r="O22" s="22">
-        <f t="shared" si="21"/>
-        <v>64.75</v>
-      </c>
-      <c r="P22" s="28">
-        <f t="shared" si="8"/>
-        <v>0.13489583333333333</v>
-      </c>
-      <c r="Q22" s="21">
-        <f t="shared" si="22"/>
-        <v>570</v>
-      </c>
-      <c r="R22" s="22">
-        <f t="shared" si="23"/>
-        <v>76.5625</v>
-      </c>
-      <c r="S22" s="28">
-        <f t="shared" si="9"/>
-        <v>0.13432017543859648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8.8825757575757572E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="14">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="1"/>
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="4"/>
+        <v>6.9841269841269843E-2</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="7"/>
+        <v>6.8888888888888888E-2</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="8"/>
+        <v>1170</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="M23" s="17">
         <f t="shared" si="10"/>
-        <v>240</v>
-      </c>
-      <c r="C23" s="22">
-        <f>$B$16*$B$5*$C12</f>
-        <v>20</v>
-      </c>
-      <c r="D23" s="28">
-        <f>C23/B23</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E23" s="21">
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="11"/>
+        <v>1440</v>
+      </c>
+      <c r="O23" s="15">
         <f t="shared" si="12"/>
-        <v>420</v>
-      </c>
-      <c r="F23" s="22">
+        <v>98</v>
+      </c>
+      <c r="P23" s="17">
         <f t="shared" si="13"/>
-        <v>33.5</v>
-      </c>
-      <c r="G23" s="28">
-        <f>F23/E23</f>
-        <v>7.9761904761904756E-2</v>
-      </c>
-      <c r="H23" s="21">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="14"/>
+        <v>1710</v>
+      </c>
+      <c r="R23" s="15">
         <f t="shared" si="15"/>
-        <v>600</v>
-      </c>
-      <c r="I23" s="22">
+        <v>116</v>
+      </c>
+      <c r="S23" s="17">
         <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="J23" s="28">
-        <f>I23/H23</f>
-        <v>7.8333333333333338E-2</v>
-      </c>
-      <c r="K23" s="21">
+        <v>6.7836257309941514E-2</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="17"/>
+        <v>1980</v>
+      </c>
+      <c r="U23" s="15">
         <f t="shared" si="18"/>
-        <v>780</v>
-      </c>
-      <c r="L23" s="22">
+        <v>134</v>
+      </c>
+      <c r="V23" s="17">
         <f t="shared" si="19"/>
-        <v>60.5</v>
-      </c>
-      <c r="M23" s="28">
-        <f t="shared" si="7"/>
-        <v>7.7564102564102566E-2</v>
-      </c>
-      <c r="N23" s="21">
-        <f t="shared" si="20"/>
-        <v>960</v>
-      </c>
-      <c r="O23" s="22">
-        <f t="shared" si="21"/>
-        <v>74</v>
-      </c>
-      <c r="P23" s="28">
-        <f t="shared" si="8"/>
-        <v>7.7083333333333337E-2</v>
-      </c>
-      <c r="Q23" s="21">
-        <f t="shared" si="22"/>
-        <v>1140</v>
-      </c>
-      <c r="R23" s="22">
-        <f t="shared" si="23"/>
-        <v>87.5</v>
-      </c>
-      <c r="S23" s="28">
-        <f t="shared" si="9"/>
-        <v>7.6754385964912283E-2</v>
+        <v>6.7676767676767682E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:P14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q16:S16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06D0D1-C04A-41EB-985C-8666CC085BBF}">
+  <dimension ref="A1:V29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>1+$B$11*B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>(1+$B$12)^B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>1+LOG(1+B2, $B$13)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="22">
+        <f>R2*$C$3</f>
+        <v>1.75</v>
+      </c>
+      <c r="T2" s="22">
+        <f>R2*$C$4</f>
+        <v>2.5</v>
+      </c>
+      <c r="U2" s="22">
+        <f>(S2-R2)/4</f>
+        <v>0.1875</v>
+      </c>
+      <c r="V2" s="22">
+        <f>(T2-S2)/4</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>1+$B$11*B3</f>
+        <v>1.75</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">(1+$B$12)^B3</f>
+        <v>1.3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">1+LOG(1+B3, $B$13)</f>
+        <v>2.709511291351455</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="22">
+        <f t="shared" ref="S3:S9" si="2">R3*$C$3</f>
+        <v>3.5</v>
+      </c>
+      <c r="T3" s="22">
+        <f t="shared" ref="T3:T9" si="3">R3*$C$4</f>
+        <v>5</v>
+      </c>
+      <c r="U3" s="22">
+        <f t="shared" ref="U3:U27" si="4">(S3-R3)/4</f>
+        <v>0.375</v>
+      </c>
+      <c r="V3" s="22">
+        <f t="shared" ref="V3:V27" si="5">(T3-S3)/4</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="6">1+$B$11*B4</f>
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3.709511291351455</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="22">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="T4" s="22">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="U4" s="22">
+        <f t="shared" si="4"/>
+        <v>0.5625</v>
+      </c>
+      <c r="V4" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="6"/>
+        <v>3.25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.1970000000000005</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.4190225827029099</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T5" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="U5" s="22">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="V5" s="22">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.8561000000000005</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.9693622959161177</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="22">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+      <c r="T6" s="22">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="U6" s="22">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="V6" s="22">
+        <f t="shared" si="5"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="6"/>
+        <v>4.75</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.712930000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>5.419022582702909</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7" s="22">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="T7" s="22">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" si="4"/>
+        <v>1.875</v>
+      </c>
+      <c r="V7" s="22">
+        <f t="shared" si="5"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.8268090000000017</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5.7992049380885575</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+      <c r="S8" s="22">
+        <f t="shared" si="2"/>
+        <v>26.25</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="4"/>
+        <v>2.8125</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="6"/>
+        <v>6.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.2748517000000028</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6.128533874054364</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9" s="22">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="T9" s="22">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="22">
+        <f>R11*$D$3</f>
+        <v>1.3</v>
+      </c>
+      <c r="T11" s="22">
+        <f>R11*$D$4</f>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" si="4"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="5"/>
+        <v>9.7500000000000031E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12" s="22">
+        <f t="shared" ref="S12:S18" si="7">R12*$D$3</f>
+        <v>2.6</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" ref="T12:T18" si="8">R12*$D$4</f>
+        <v>3.3800000000000003</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="4"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="5"/>
+        <v>0.19500000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" s="22">
+        <f t="shared" si="7"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="8"/>
+        <v>5.07</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="5"/>
+        <v>0.29249999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14" s="22">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="8"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="5"/>
+        <v>0.39000000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15" s="22">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="8"/>
+        <v>8.4500000000000011</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="5"/>
+        <v>0.48750000000000027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.24</v>
+      </c>
+      <c r="C16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16" s="22">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="22">
+        <f t="shared" si="8"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="5"/>
+        <v>0.97500000000000053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.8</v>
+      </c>
+      <c r="C17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17" s="22">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="T17" s="22">
+        <f t="shared" si="8"/>
+        <v>25.35</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="5"/>
+        <v>1.4625000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18" s="22">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="8"/>
+        <v>33.800000000000004</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="5"/>
+        <v>1.9500000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.75</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>0.62</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="22">
+        <f>R20*$E$3</f>
+        <v>2.709511291351455</v>
+      </c>
+      <c r="T20" s="22">
+        <f>R20*$E$4</f>
+        <v>3.709511291351455</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="4"/>
+        <v>0.42737782283786374</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+      <c r="C21">
+        <v>1.08</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21" s="22">
+        <f t="shared" ref="S21:S27" si="9">R21*$E$3</f>
+        <v>5.4190225827029099</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" ref="T21:T27" si="10">R21*$E$4</f>
+        <v>7.4190225827029099</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" si="4"/>
+        <v>0.85475564567572748</v>
+      </c>
+      <c r="V21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22" s="22">
+        <f t="shared" si="9"/>
+        <v>8.1285338740543658</v>
+      </c>
+      <c r="T22" s="22">
+        <f t="shared" si="10"/>
+        <v>11.128533874054366</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" si="4"/>
+        <v>1.2821334685135914</v>
+      </c>
+      <c r="V22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23" s="22">
+        <f t="shared" si="9"/>
+        <v>10.83804516540582</v>
+      </c>
+      <c r="T23" s="22">
+        <f t="shared" si="10"/>
+        <v>14.83804516540582</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="4"/>
+        <v>1.709511291351455</v>
+      </c>
+      <c r="V23" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.35</v>
+      </c>
+      <c r="C24">
+        <v>0.67</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24" s="22">
+        <f t="shared" si="9"/>
+        <v>13.547556456757274</v>
+      </c>
+      <c r="T24" s="22">
+        <f t="shared" si="10"/>
+        <v>18.547556456757274</v>
+      </c>
+      <c r="U24" s="22">
+        <f t="shared" si="4"/>
+        <v>2.1368891141893185</v>
+      </c>
+      <c r="V24" s="22">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1.35</v>
+      </c>
+      <c r="C25">
+        <v>1.06</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25" s="22">
+        <f t="shared" si="9"/>
+        <v>27.095112913514548</v>
+      </c>
+      <c r="T25" s="22">
+        <f t="shared" si="10"/>
+        <v>37.095112913514548</v>
+      </c>
+      <c r="U25" s="22">
+        <f t="shared" si="4"/>
+        <v>4.273778228378637</v>
+      </c>
+      <c r="V25" s="22">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>15</v>
+      </c>
+      <c r="S26" s="22">
+        <f t="shared" si="9"/>
+        <v>40.642669370271825</v>
+      </c>
+      <c r="T26" s="22">
+        <f t="shared" si="10"/>
+        <v>55.642669370271825</v>
+      </c>
+      <c r="U26" s="22">
+        <f t="shared" si="4"/>
+        <v>6.4106673425679563</v>
+      </c>
+      <c r="V26" s="22">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="S27" s="22">
+        <f t="shared" si="9"/>
+        <v>54.190225827029096</v>
+      </c>
+      <c r="T27" s="22">
+        <f t="shared" si="10"/>
+        <v>74.190225827029096</v>
+      </c>
+      <c r="U27" s="22">
+        <f t="shared" si="4"/>
+        <v>8.5475564567572739</v>
+      </c>
+      <c r="V27" s="22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>